--- a/statistics/performance_table_transfer_learning.xlsx
+++ b/statistics/performance_table_transfer_learning.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Basic learning" sheetId="1" r:id="rId1"/>
     <sheet name="Weights transfer" sheetId="2" r:id="rId2"/>
     <sheet name="Values transfer" sheetId="3" r:id="rId3"/>
+    <sheet name="Charts" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -21,7 +22,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,11 +42,21 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Wall time</t>
+source test_number = test_number</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +64,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -62,10 +73,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Здесь затухание lr было сильно уменьшено в надежде на меньшую хаотичность результатов</t>
+source test_number = test_number</t>
         </r>
       </text>
     </comment>
@@ -74,155 +85,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="27">
+  <si>
+    <t>exp_name</t>
+  </si>
   <si>
     <t>alpha</t>
   </si>
   <si>
-    <t>Time, h</t>
+    <t>BL_1</t>
   </si>
   <si>
-    <t>MSE_q</t>
+    <t>BL_3</t>
+  </si>
+  <si>
+    <t>BL_5</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
   <si>
     <t>Rel_q</t>
   </si>
   <si>
-    <t>iter</t>
+    <t>source_exp</t>
+  </si>
+  <si>
+    <t>WT_1</t>
+  </si>
+  <si>
+    <t>WT_3</t>
+  </si>
+  <si>
+    <t>WT_5</t>
   </si>
   <si>
     <t>source alpha</t>
   </si>
   <si>
-    <t>BL_1</t>
-  </si>
-  <si>
-    <t>BL_2</t>
-  </si>
-  <si>
-    <t>BL_3</t>
-  </si>
-  <si>
-    <t>BL_4</t>
-  </si>
-  <si>
-    <t>BL_5</t>
-  </si>
-  <si>
-    <t>WT_1</t>
-  </si>
-  <si>
-    <t>WT_2</t>
-  </si>
-  <si>
-    <t>WT_3</t>
-  </si>
-  <si>
-    <t>WT_4</t>
-  </si>
-  <si>
-    <t>WT_5</t>
-  </si>
-  <si>
-    <t>WT_6</t>
-  </si>
-  <si>
-    <t>WT_7</t>
-  </si>
-  <si>
-    <t>WT_8</t>
-  </si>
-  <si>
-    <t>WT_9</t>
-  </si>
-  <si>
-    <t>WT_10</t>
-  </si>
-  <si>
-    <t>source exp</t>
-  </si>
-  <si>
-    <t>exp name</t>
-  </si>
-  <si>
-    <t>transfer iter</t>
-  </si>
-  <si>
     <t>VT_1</t>
-  </si>
-  <si>
-    <t>VT_2</t>
   </si>
   <si>
     <t>VT_3</t>
   </si>
   <si>
-    <t>VT_4</t>
-  </si>
-  <si>
     <t>VT_5</t>
   </si>
   <si>
-    <t>VT_6</t>
+    <t>test_number</t>
   </si>
   <si>
-    <t>VT_7</t>
+    <t>2h 2min</t>
   </si>
   <si>
-    <t>VT_8</t>
+    <t>2h 3min</t>
   </si>
   <si>
-    <t>VT_9</t>
+    <t>average</t>
   </si>
   <si>
-    <t>VT_10</t>
+    <t>2h 7min</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>2h 6min</t>
   </si>
   <si>
-    <t>52m</t>
+    <t>Basic_learning</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Weights_transfer</t>
   </si>
   <si>
-    <t>35min</t>
+    <t>Values_transfer</t>
   </si>
   <si>
-    <t>7.430e-08</t>
+    <t>deviation</t>
   </si>
   <si>
-    <t>42min</t>
+    <t>WT_benefit</t>
   </si>
   <si>
-    <t>43min</t>
-  </si>
-  <si>
-    <t>44min</t>
-  </si>
-  <si>
-    <t>45min</t>
-  </si>
-  <si>
-    <t>46min</t>
-  </si>
-  <si>
-    <t>Accuracy increase</t>
-  </si>
-  <si>
-    <t>alpha_diff</t>
+    <t>VT_benefit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000E+00"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,47 +196,16 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -300,29 +222,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,89 +382,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>График 1</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.45484841667518833"/>
-          <c:y val="0.9506319901842083"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.9467634727477248E-2"/>
-          <c:y val="2.9304032377494672E-2"/>
-          <c:w val="0.92328568019906598"/>
-          <c:h val="0.80467584183830321"/>
+          <c:x val="0.11682120585990581"/>
+          <c:y val="5.6585612169220319E-2"/>
+          <c:w val="0.77804869910528018"/>
+          <c:h val="0.81111336454213667"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -446,7 +402,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>source_alpha=0,20</c:v>
+            <c:strRef>
+              <c:f>Charts!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Basic_learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -472,64 +436,55 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.2800000000000002E-2"/>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Weights transfer'!$J$2:$J$6</c:f>
+              <c:f>Charts!$A$2:$A$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9999999999999989E-2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9999999999999978E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Weights transfer'!$I$2:$I$6</c:f>
+              <c:f>Charts!$B$2:$B$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>2.5887306999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91354602510460248</c:v>
+                  <c:v>2.0235567000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75992835209825993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.79727608494921509</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91733091787439613</c:v>
+                  <c:v>2.5531055000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -540,10 +495,18 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>source_alpha=0,30</c:v>
+            <c:strRef>
+              <c:f>Charts!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weights_transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -566,50 +529,55 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="4.4200000000000012E-3"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Weights transfer'!$J$7:$J$11</c:f>
+              <c:f>Charts!$A$2:$A$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-9.9999999999999978E-2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9999999999999989E-2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9999999999999989E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.10000000000000003</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Weights transfer'!$I$7:$I$11</c:f>
+              <c:f>Charts!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.46955696202531649</c:v>
+                  <c:v>8.9744410000000014E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86180264993026501</c:v>
+                  <c:v>8.2001769999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6163254861821903</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.64787626962142197</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.85386473429951693</c:v>
+                  <c:v>7.3505929999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,13 +592,130 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="341030056"/>
-        <c:axId val="341029664"/>
+        <c:axId val="356977984"/>
+        <c:axId val="297673616"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Values_transfer</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:errBars>
+                  <c:errDir val="y"/>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="fixedVal"/>
+                  <c:noEndCap val="0"/>
+                  <c:val val="8.7000000000000011E-3"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:errBars>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$2:$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$D$2:$D$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1.5758815000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5420860999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0069284999999999E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="341030056"/>
+        <c:axId val="356977984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.45"/>
+          <c:min val="0.15000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -655,7 +740,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -665,12 +750,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1300" baseline="0">
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>alpha - source_alpha</a:t>
+                  <a:t>alpha</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -679,8 +764,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41091999863653406"/>
-              <c:y val="0.87585695796309182"/>
+              <c:x val="0.47325913424092053"/>
+              <c:y val="0.93120414056459377"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -696,7 +781,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -709,7 +794,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -728,7 +813,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -740,14 +825,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341029664"/>
+        <c:crossAx val="297673616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="341029664"/>
+        <c:axId val="297673616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0000000000000008E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -772,9 +858,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -782,20 +871,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1300" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                   </a:rPr>
-                  <a:t>Accuracy increase</a:t>
+                  <a:t>rel_h</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1300" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1300" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -803,8 +885,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.332910658894911E-2"/>
-              <c:y val="0.34483735108328428"/>
+              <c:x val="3.4246570242549468E-3"/>
+              <c:y val="0.42045224306881485"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -820,9 +902,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -833,8 +918,8 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -844,17 +929,15 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
-            <a:headEnd type="oval"/>
-            <a:tailEnd type="none"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -866,10 +949,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341030056"/>
+        <c:crossAx val="356977984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -885,10 +968,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74660312915431026"/>
-          <c:y val="0.68215709984041217"/>
-          <c:w val="0.2334120053175171"/>
-          <c:h val="0.14841570325559919"/>
+          <c:x val="0.79092620331068808"/>
+          <c:y val="0.29876361647178873"/>
+          <c:w val="0.19831725047226637"/>
+          <c:h val="0.32765625739668314"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -908,7 +991,10 @@
           <a:pPr>
             <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -970,89 +1056,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>График 2</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.42367958550635715"/>
-          <c:y val="0.93589902232644007"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.9467634727477248E-2"/>
-          <c:y val="2.9304032377494672E-2"/>
-          <c:w val="0.92328568019906598"/>
-          <c:h val="0.80467584183830321"/>
+          <c:x val="0.11682120585990581"/>
+          <c:y val="5.6585612169220319E-2"/>
+          <c:w val="0.77804869910528018"/>
+          <c:h val="0.81111336454213667"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1062,7 +1076,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>source_alpha=0,20</c:v>
+            <c:strRef>
+              <c:f>Charts!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Basic_learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1088,64 +1110,712 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.2800000000000002E-2"/>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Values transfer'!$K$2:$K$6</c:f>
+              <c:f>Charts!$A$2:$A$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9999999999999989E-2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9999999999999978E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Values transfer'!$J$2:$J$6</c:f>
+              <c:f>Charts!$B$2:$B$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.27341772151898736</c:v>
+                  <c:v>2.5887306999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71774755927475598</c:v>
+                  <c:v>2.0235567000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.12077789150460605</c:v>
+                  <c:v>2.5531055000000004E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.7091412742382266E-2</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Values_transfer</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.57789855072463769</c:v>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="8.7000000000000011E-3"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Charts!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Charts!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5758815000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5420860999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0069284999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="438936136"/>
+        <c:axId val="438930256"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Weights_transfer</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:errBars>
+                  <c:errDir val="y"/>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="fixedVal"/>
+                  <c:noEndCap val="0"/>
+                  <c:val val="4.4200000000000012E-3"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:errBars>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$A$2:$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Charts!$C$2:$C$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>8.9744410000000014E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.2001769999999995E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.3505929999999999E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="438936136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.45"/>
+          <c:min val="0.15000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>alpha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47325913424092053"/>
+              <c:y val="0.93120414056459377"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438930256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="438930256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.0000000000000008E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>rel_h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.4246570242549468E-3"/>
+              <c:y val="0.42045224306881485"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438936136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79092620331068808"/>
+          <c:y val="0.29876361647178873"/>
+          <c:w val="0.19831725047226637"/>
+          <c:h val="0.32765625739668314"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11682120585990581"/>
+          <c:y val="5.6585612169220319E-2"/>
+          <c:w val="0.77804869910528018"/>
+          <c:h val="0.81111336454213667"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Basic_learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Charts!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Charts!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.5887306999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0235567000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5531055000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,10 +1826,18 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>source_alpha=0,30</c:v>
+            <c:strRef>
+              <c:f>Charts!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weights_transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1184,48 +1862,110 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Values transfer'!$K$7:$K$11</c:f>
+              <c:f>Charts!$A$2:$A$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-9.9999999999999978E-2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9999999999999989E-2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9999999999999989E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.10000000000000003</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Values transfer'!$J$7:$J$11</c:f>
+              <c:f>Charts!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-1.9620253164556845E-2</c:v>
+                  <c:v>8.9744410000000014E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51551603905160392</c:v>
+                  <c:v>8.2001769999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.5066530194472878</c:v>
+                  <c:v>7.3505929999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.53739612188365671</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Values_transfer</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.82345008051529789</c:v>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Charts!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Charts!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5758815000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5420860999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0069284999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1240,13 +1980,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446312408"/>
-        <c:axId val="446313976"/>
+        <c:axId val="360963208"/>
+        <c:axId val="360959680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446312408"/>
+        <c:axId val="360963208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.45"/>
+          <c:min val="0.15000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1271,7 +2013,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1281,12 +2023,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1300" baseline="0">
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>alpha - source_alpha</a:t>
+                  <a:t>alpha</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1295,8 +2037,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41265160036813581"/>
-              <c:y val="0.8586684954623619"/>
+              <c:x val="0.47325913424092053"/>
+              <c:y val="0.93120414056459377"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1312,7 +2054,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1325,7 +2067,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1344,7 +2086,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1356,16 +2098,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446313976"/>
+        <c:crossAx val="360959680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446313976"/>
+        <c:axId val="360959680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="-0.60000000000000009"/>
+          <c:max val="4.0000000000000008E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1390,9 +2131,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1400,20 +2144,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1300" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                   </a:rPr>
-                  <a:t>Accuracy increase</a:t>
+                  <a:t>rel_h</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1300" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1300" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1421,8 +2158,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.2078944677369871E-3"/>
-              <c:y val="0.41850213280011073"/>
+              <c:x val="3.4246570242549468E-3"/>
+              <c:y val="0.42045224306881485"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1438,9 +2175,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1451,8 +2191,8 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1462,17 +2202,15 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
-            <a:headEnd type="oval"/>
-            <a:tailEnd type="none"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1484,10 +2222,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446312408"/>
+        <c:crossAx val="360963208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.4"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1503,10 +2241,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74660312915431026"/>
-          <c:y val="0.68215709984041217"/>
-          <c:w val="0.2334120053175171"/>
-          <c:h val="0.14841570325559919"/>
+          <c:x val="0.79092620331068808"/>
+          <c:y val="0.29876361647178873"/>
+          <c:w val="0.19831725047226637"/>
+          <c:h val="0.32765625739668314"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1526,7 +2264,10 @@
           <a:pPr>
             <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1654,6 +2395,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2686,24 +3467,540 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2718,27 +4015,22 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2749,7 +4041,39 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3044,459 +4368,1174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
-    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="1" max="1" width="13.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="G2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4.4074299999999997E-2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.8031100000000001E-2</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3.9320099999999997E-2</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4.2362999999999998E-2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.2428300000000002E-2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2.3139199999999999E-2</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3.66398E-2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>7.7335700000000004E-3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2.1897799999999999E-2</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.52155E-2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1.9787699999999998E-2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3.9748499999999999E-2</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7.0634699999999996E-3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3.6036499999999999E-2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2.98304E-2</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.8975800000000001E-2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.1230200000000001E-2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5.8525599999999997E-3</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3.9518600000000001E-2</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1.13934E-2</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2.4481200000000002E-2</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1.2005999999999999E-2</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.6524599999999999E-2</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="8">
+        <v>8.2106899999999997E-3</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2.1859E-2</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2.9043800000000002E-2</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.5068599999999998E-2</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.1157599999999999E-2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.0146499999999999E-2</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2.7761500000000001E-2</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="8">
+        <f>AVERAGE(C4:C13)</f>
+        <v>2.5887306999999998E-2</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="8">
+        <f>AVERAGE(E4:E13)</f>
+        <v>2.0235567000000003E-2</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="8">
+        <f>AVERAGE(G4:G13)</f>
+        <v>2.5531055000000004E-2</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>1</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16">
+        <f>(C14-C4)^2</f>
+        <v>3.3076671438204893E-4</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16">
+        <f>(E14-E4)^2</f>
+        <v>4.859674754089007E-6</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16">
+        <f>(G14-G4)^2</f>
+        <v>1.901377620120248E-4</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="19">
+        <f>(C14-C5)^2</f>
+        <v>2.71448459830249E-4</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="19">
+        <f>(E14-E5)^2</f>
+        <v>4.8080780092889949E-6</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19">
+        <f>(G14-G5)^2</f>
+        <v>5.7209703410250254E-6</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>3</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="19">
+        <f>(C14-C6)^2</f>
+        <v>1.1561610571504905E-4</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="19">
+        <f>(E14-E6)^2</f>
+        <v>1.5629992898800907E-4</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="19">
+        <f>(G14-G6)^2</f>
+        <v>1.3200541895025038E-5</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="19">
+        <f>(C14-C7)^2</f>
+        <v>1.1388746464524897E-4</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="19">
+        <f>(E14-E7)^2</f>
+        <v>2.005848496890041E-7</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19">
+        <f>(G14-G7)^2</f>
+        <v>2.0213574232802486E-4</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="19">
+        <f>(C14-C8)^2</f>
+        <v>3.5433683940256901E-4</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="19">
+        <f>(E14-E8)^2</f>
+        <v>2.4966948367048886E-4</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="19">
+        <f>(G14-G8)^2</f>
+        <v>1.8484367429024968E-5</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>6</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="19">
+        <f>(C14-C9)^2</f>
+        <v>4.7768929011048964E-5</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="19">
+        <f>(E14-E9)^2</f>
+        <v>9.892948046889965E-7</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="19">
+        <f>(G14-G9)^2</f>
+        <v>3.8724316546502515E-4</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>7</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="19">
+        <f>(C14-C10)^2</f>
+        <v>1.8581214885184908E-4</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="19">
+        <f>(E14-E10)^2</f>
+        <v>7.8183917255889062E-5</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19">
+        <f>(G14-G10)^2</f>
+        <v>1.1021955210250048E-6</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>8</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="19">
+        <f>(C14-C11)^2</f>
+        <v>1.9269068402824897E-4</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="19">
+        <f>(E14-E11)^2</f>
+        <v>3.9551936075088951E-5</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="19">
+        <f>(G14-G11)^2</f>
+        <v>2.9999504373322516E-4</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>9</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="19">
+        <f>(C14-C12)^2</f>
+        <v>1.6227257286248986E-5</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="19">
+        <f>(E14-E12)^2</f>
+        <v>7.758496858228898E-5</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="19">
+        <f>(G14-G12)^2</f>
+        <v>9.0964764627024896E-5</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>10</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="8">
+        <f>(C14-C13)^2</f>
+        <v>2.2370128305848996E-5</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="8">
+        <f>(E14-E13)^2</f>
+        <v>1.0178927293048908E-4</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="8">
+        <f>(G14-G13)^2</f>
+        <v>4.9748848980249888E-6</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22">
+        <f>SQRT(AVERAGE(C15:C24))</f>
+        <v>1.284883158679578E-2</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22">
+        <f>SQRT(AVERAGE(E15:E24))</f>
+        <v>8.4494801018761504E-3</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="18">
+        <f>SQRT(AVERAGE(G15:G24))</f>
+        <v>1.1017982747533461E-2</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.21791E-2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.1195699999999999E-2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.0023499999999999E-2</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.3592E-2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.2822699999999999E-2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.1062000000000001E-2</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1.4656300000000001E-2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.25016E-2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.1296799999999999E-2</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5.5590700000000002E-3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5.1282400000000001E-3</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4.7422799999999998E-3</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2.6076900000000002E-3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2.6229500000000002E-3</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2.4107899999999999E-3</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
+        <v>6.8834200000000003E-3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="8">
+        <v>6.5254600000000003E-3</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5.91297E-3</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1.5347299999999999E-2</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.3233099999999999E-2</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1.21694E-2</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3.76772E-3</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3.6992800000000001E-3</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3.2914799999999998E-3</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8">
+        <v>8.8631000000000005E-3</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="8">
+        <v>8.2927799999999996E-3</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="8">
+        <v>7.3133199999999999E-3</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9">
+        <v>6.2887100000000003E-3</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9">
+        <v>5.9799600000000003E-3</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="9">
+        <v>5.2833899999999998E-3</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="10">
+        <f>AVERAGE(D4:D13)</f>
+        <v>8.9744410000000014E-3</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="10">
+        <f>AVERAGE(F4:F13)</f>
+        <v>8.2001769999999995E-3</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="10">
+        <f>AVERAGE(H4:H13)</f>
+        <v>7.3505929999999999E-3</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16">
+        <f>(D14-D4)^2</f>
+        <v>1.0269839306280991E-5</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16">
+        <f>(F14-F4)^2</f>
+        <v>8.9731580435290003E-6</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16">
+        <f>(H14-H4)^2</f>
+        <v>7.1444318306489977E-6</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="19">
+        <f>(D14-D5)^2</f>
+        <v>2.1321851118480986E-5</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="19">
+        <f>(F14-F5)^2</f>
+        <v>2.1367718885529E-5</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="8">
+        <f>(H14-H5)^2</f>
+        <v>1.3774541919649006E-5</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="19">
+        <f>(D14-D6)^2</f>
+        <v>3.2283521695880989E-5</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="19">
+        <f>(F14-F6)^2</f>
+        <v>1.8502239824929003E-5</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="19">
+        <f>(H14-H6)^2</f>
+        <v>1.5572549686848996E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="19">
+        <f>(D14-D7)^2</f>
+        <v>1.1664759067641009E-5</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="19">
+        <f>(F14-F7)^2</f>
+        <v>9.4367969319689964E-6</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="19">
+        <f>(H14-H7)^2</f>
+        <v>6.8032967059690006E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="19">
+        <f>(D14-D8)^2</f>
+        <v>4.0535518296001018E-5</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="19">
+        <f>(F14-F8)^2</f>
+        <v>3.1105461009528987E-5</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="19">
+        <f>(H14-H8)^2</f>
+        <v>2.4401653678808994E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="B2" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3.614E-6</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="I2" s="13">
-        <v>7.9849999999999996E-7</v>
-      </c>
-      <c r="J2" s="13">
-        <v>7.4250000000000002E-3</v>
-      </c>
-      <c r="K2" s="13">
-        <v>5.0090000000000004E-7</v>
-      </c>
-      <c r="L2" s="13">
-        <v>5.8809999999999999E-3</v>
-      </c>
-      <c r="M2" s="13">
-        <v>1.649E-6</v>
-      </c>
-      <c r="N2" s="13">
-        <v>1.0670000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="19">
+        <f>(D14-D9)^2</f>
+        <v>4.3723688224410048E-6</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="19">
+        <f>(F14-F9)^2</f>
+        <v>2.8046770300889972E-6</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="19">
+        <f>(H14-H9)^2</f>
+        <v>2.0667598901289996E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="C3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="4">
-        <v>4.8229999999999997E-5</v>
-      </c>
-      <c r="F3" s="4">
-        <v>5.7360000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="19">
+        <f>(D14-D10)^2</f>
+        <v>4.0613331833880976E-5</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="19">
+        <f>(F14-F10)^2</f>
+        <v>2.5330313923929E-5</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="19">
+        <f>(H14-H10)^2</f>
+        <v>2.3220900903249006E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5.6670000000000001E-6</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1.9539999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="19">
+        <f>(D14-D11)^2</f>
+        <v>2.710994357184101E-5</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="19">
+        <f>(F14-F11)^2</f>
+        <v>2.0258073804608995E-5</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="19">
+        <f>(H14-H11)^2</f>
+        <v>1.6476398346768998E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
         <v>9</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="C5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4">
-        <v>7.0570000000000004E-6</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2.1659999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="19">
+        <f>(D14-D12)^2</f>
+        <v>1.2396818281000202E-8</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="19">
+        <f>(F14-F12)^2</f>
+        <v>8.5753156090000232E-9</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="8">
+        <f>(H14-H12)^2</f>
+        <v>1.3892765289999995E-9</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
         <v>10</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="C6" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3.7629999999999997E-5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>4.9680000000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="U7" s="8"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="11">
-        <v>9.0110000000000004E-8</v>
-      </c>
-      <c r="K10" s="11">
-        <v>2.1840000000000002E-3</v>
-      </c>
-      <c r="L10" s="13">
-        <v>6.4410000000000006E-8</v>
-      </c>
-      <c r="M10" s="13">
-        <v>1.7799999999999999E-3</v>
-      </c>
-      <c r="N10" s="11">
-        <v>1.2709999999999999E-7</v>
-      </c>
-      <c r="O10" s="11">
-        <v>2.8779999999999999E-3</v>
-      </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="11">
-        <v>1.1689999999999999E-7</v>
-      </c>
-      <c r="S10" s="11">
-        <v>2.751E-3</v>
-      </c>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z10" s="11">
-        <f>0.0000009131</f>
-        <v>9.1309999999999999E-7</v>
-      </c>
-      <c r="AA10" s="11">
-        <v>1.197E-2</v>
-      </c>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="13">
-        <v>1.3169999999999999E-7</v>
-      </c>
-      <c r="AD10" s="13">
-        <v>2.8159999999999999E-3</v>
-      </c>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="11">
-        <v>9.5449999999999998E-8</v>
-      </c>
-      <c r="S11" s="11">
-        <v>2.3640000000000002E-3</v>
-      </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>2.9069999999999999E-6</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>2.1559999999999999E-2</v>
-      </c>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="13">
-        <v>6.6129999999999997E-8</v>
-      </c>
-      <c r="AD11" s="13">
-        <v>1.879E-3</v>
-      </c>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" s="11">
-        <v>1.106E-7</v>
-      </c>
-      <c r="S12" s="11">
-        <v>2.5079999999999998E-3</v>
-      </c>
-      <c r="T12" s="11">
-        <v>1.3750000000000001E-7</v>
-      </c>
-      <c r="U12" s="11">
-        <v>2.8340000000000001E-3</v>
-      </c>
-      <c r="V12" s="11">
-        <v>4.416E-8</v>
-      </c>
-      <c r="W12" s="11">
-        <v>1.531E-3</v>
-      </c>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z12" s="11">
-        <v>4.2300000000000002E-7</v>
-      </c>
-      <c r="AA12" s="11">
-        <v>8.3719999999999992E-3</v>
-      </c>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="13">
-        <v>6.3829999999999997E-8</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>1.9430000000000001E-3</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>6.1729999999999998E-8</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>1.8749999999999999E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S13" s="11">
-        <v>1.9680000000000001E-3</v>
-      </c>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>1.052E-6</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>1.328E-2</v>
-      </c>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="13">
-        <v>3.7469999999999997E-8</v>
-      </c>
-      <c r="AD13" s="13">
-        <v>1.4729999999999999E-3</v>
-      </c>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" s="11">
-        <v>4.9030000000000003E-8</v>
-      </c>
-      <c r="S14" s="11">
-        <v>1.64E-3</v>
-      </c>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="13">
-        <v>3.2409999999999997E-8</v>
-      </c>
-      <c r="AD14" s="13">
-        <v>1.286E-3</v>
-      </c>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="8">
+        <f>(D14-D13)^2</f>
+        <v>7.2131510043610058E-6</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="8">
+        <f>(F14-F13)^2</f>
+        <v>4.9293635270889962E-6</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="8">
+        <f>(H14-H13)^2</f>
+        <v>4.2733282432090006E-6</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22">
+        <f>SQRT(AVERAGE(D15:D24))</f>
+        <v>4.4203696851631081E-3</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22">
+        <f>SQRT(AVERAGE(F15:F24))</f>
+        <v>3.7777821310500423E-3</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="18">
+        <f>SQRT(AVERAGE(H15:H24))</f>
+        <v>3.37246572231372E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3505,835 +5544,717 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="16.85546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.7556800000000001E-2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8">
+        <v>7.2081100000000002E-3</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.16145E-2</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8">
+        <v>8.3231799999999995E-3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.1462099999999999E-2</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.9214700000000001E-2</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2.50469E-2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2.0105600000000001E-2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3.3370799999999999E-2</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2.0282100000000001E-2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2.1104100000000001E-2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="8">
+        <v>3.1131900000000001E-2</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.9425000000000001E-2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.2858700000000001E-2</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.5884499999999999E-2</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2.3389500000000001E-2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.8164199999999998E-2</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2.62609E-2</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8">
+        <v>9.6275400000000004E-3</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.19314E-2</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2.6145600000000001E-2</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.0433599999999999E-2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.72514E-2</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2.09295E-2</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1.3799799999999999E-2</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.31298E-2</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="8">
+        <v>9.5107899999999999E-3</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9">
+        <v>9.7037300000000007E-3</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2.09932E-2</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="9">
+        <v>6.6296599999999999E-3</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="10">
+        <f>AVERAGE(D4:D13)</f>
+        <v>1.5758815000000002E-2</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="10">
+        <f>AVERAGE(F4:F13)</f>
+        <v>1.5420860999999999E-2</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="10">
+        <f>AVERAGE(H4:H13)</f>
+        <v>2.0069284999999999E-2</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="16">
+        <f>(D14-D4)^2</f>
+        <v>3.2327500602249947E-6</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16">
+        <f>(F14-F4)^2</f>
+        <v>6.7449278988000979E-5</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16">
+        <f>(H14-H4)^2</f>
+        <v>7.1483389396224988E-5</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="19">
+        <f>(D14-D5)^2</f>
+        <v>5.5288667853225044E-5</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="19">
+        <f>(F14-F5)^2</f>
+        <v>1.5671788655120999E-5</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="8">
+        <f>(H14-H5)^2</f>
+        <v>7.3031552222499651E-7</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="19">
+        <f>(D14-D6)^2</f>
+        <v>8.6268522967224967E-5</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="19">
+        <f>(F14-F6)^2</f>
+        <v>2.1946779498121019E-5</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="8">
+        <f>(H14-H6)^2</f>
+        <v>1.7693030129522499E-4</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="19">
+        <f>(D14-D7)^2</f>
+        <v>2.0460107191224986E-5</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="19">
+        <f>(F14-F7)^2</f>
+        <v>3.2299205531121016E-5</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="8">
+        <f>(H14-H7)^2</f>
+        <v>1.2238145063822502E-4</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="19">
+        <f>(D14-D8)^2</f>
+        <v>1.3440912454224992E-5</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="19">
+        <f>(F14-F8)^2</f>
+        <v>6.5646689899209925E-6</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="8">
+        <f>(H14-H8)^2</f>
+        <v>1.7512425496224999E-5</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="4">
-        <v>3.819E-7</v>
-      </c>
-      <c r="H2" s="4">
-        <v>5.1349999999999998E-3</v>
-      </c>
-      <c r="I2" s="15">
-        <f>(1-(H2/'Basic learning'!F2))</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="J2" s="16">
-        <f>D2-C2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="4">
-        <v>3.6049999999999998E-7</v>
-      </c>
-      <c r="H3" s="4">
-        <v>4.9589999999999999E-3</v>
-      </c>
-      <c r="I3" s="15">
-        <f>(1-(H3/'Basic learning'!F3))</f>
-        <v>0.91354602510460248</v>
-      </c>
-      <c r="J3" s="16">
-        <f t="shared" ref="J3:J10" si="0">D3-C3</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3.2669999999999998E-7</v>
-      </c>
-      <c r="H4" s="4">
-        <v>4.6909999999999999E-3</v>
-      </c>
-      <c r="I4" s="15">
-        <f>(1-(H4/'Basic learning'!F4))</f>
-        <v>0.75992835209825993</v>
-      </c>
-      <c r="J4" s="16">
-        <f t="shared" si="0"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="E5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2.9009999999999998E-7</v>
-      </c>
-      <c r="H5" s="4">
-        <v>4.3909999999999999E-3</v>
-      </c>
-      <c r="I5" s="15">
-        <f>(1-(H5/'Basic learning'!F5))</f>
-        <v>0.79727608494921509</v>
-      </c>
-      <c r="J5" s="16">
-        <f t="shared" si="0"/>
-        <v>0.14999999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2.572E-7</v>
-      </c>
-      <c r="H6" s="4">
-        <v>4.1070000000000004E-3</v>
-      </c>
-      <c r="I6" s="15">
-        <f>(1-(H6/'Basic learning'!F6))</f>
-        <v>0.91733091787439613</v>
-      </c>
-      <c r="J6" s="16">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="19">
+        <f>(D14-D9)^2</f>
+        <v>5.8227353569224974E-5</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="19">
+        <f>(F14-F9)^2</f>
+        <v>7.5259088689209957E-6</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="8">
+        <f>(H14-H9)^2</f>
+        <v>3.8336096308225013E-5</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="19">
+        <f>(D14-D10)^2</f>
+        <v>3.7592533125625022E-5</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="19">
+        <f>(F14-F10)^2</f>
+        <v>1.2176338070520995E-5</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="8">
+        <f>(H14-H10)^2</f>
+        <v>3.6921603979225026E-5</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1.017E-6</v>
-      </c>
-      <c r="H7" s="4">
-        <v>8.3809999999999996E-3</v>
-      </c>
-      <c r="I7" s="15">
-        <f>(1-(H7/'Basic learning'!F2))</f>
-        <v>0.46955696202531649</v>
-      </c>
-      <c r="J7" s="16">
-        <f t="shared" si="0"/>
-        <v>-9.9999999999999978E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4">
-        <v>9.2129999999999997E-7</v>
-      </c>
-      <c r="H8" s="4">
-        <v>7.927E-3</v>
-      </c>
-      <c r="I8" s="15">
-        <f>(1-(H8/'Basic learning'!F3))</f>
-        <v>0.86180264993026501</v>
-      </c>
-      <c r="J8" s="16">
-        <f t="shared" si="0"/>
-        <v>-4.9999999999999989E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="4">
-        <v>8.3460000000000002E-7</v>
-      </c>
-      <c r="H9" s="4">
-        <v>7.4970000000000002E-3</v>
-      </c>
-      <c r="I9" s="15">
-        <f>(1-(H9/'Basic learning'!F4))</f>
-        <v>0.6163254861821903</v>
-      </c>
-      <c r="J9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="E10" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="4">
-        <v>8.7509999999999999E-7</v>
-      </c>
-      <c r="H10" s="4">
-        <v>7.6270000000000001E-3</v>
-      </c>
-      <c r="I10" s="15">
-        <f>(1-(H10/'Basic learning'!F5))</f>
-        <v>0.64787626962142197</v>
-      </c>
-      <c r="J10" s="16">
-        <f t="shared" si="0"/>
-        <v>4.9999999999999989E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="4">
-        <v>8.0370000000000003E-7</v>
-      </c>
-      <c r="H11" s="14">
-        <v>7.26E-3</v>
-      </c>
-      <c r="I11" s="15">
-        <f>(1-(H11/'Basic learning'!F6))</f>
-        <v>0.85386473429951693</v>
-      </c>
-      <c r="J11" s="16">
-        <f>D11-C11</f>
-        <v>0.10000000000000003</v>
+      <c r="C22" s="17"/>
+      <c r="D22" s="19">
+        <f>(D14-D11)^2</f>
+        <v>2.8357914796225031E-5</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="19">
+        <f>(F14-F11)^2</f>
+        <v>3.3508730305210029E-6</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="8">
+        <f>(H14-H11)^2</f>
+        <v>7.399698462250017E-7</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>9</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="19">
+        <f>(D14-D12)^2</f>
+        <v>3.8377397702250124E-6</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="19">
+        <f>(F14-F12)^2</f>
+        <v>5.2489605057209947E-6</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="8">
+        <f>(H14-H12)^2</f>
+        <v>1.1148181666502499E-4</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>10</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="8">
+        <f>(D14-D13)^2</f>
+        <v>3.666405435722502E-5</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="8">
+        <f>(F14-F13)^2</f>
+        <v>3.1050961930921008E-5</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="8">
+        <f>(H14-H13)^2</f>
+        <v>1.80623520140625E-4</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22">
+        <f>SQRT(AVERAGE(D15:D24))</f>
+        <v>5.8597828982365043E-3</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22">
+        <f>SQRT(AVERAGE(F15:F24))</f>
+        <v>4.5087111691578781E-3</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="18">
+        <f>SQRT(AVERAGE(H15:H24))</f>
+        <v>8.7013843110590738E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="16.42578125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>0.2</v>
       </c>
-      <c r="D2" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1.9080000000000002E-6</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1.1480000000000001E-2</v>
-      </c>
-      <c r="J2" s="17">
-        <f>(1-(I2/'Basic learning'!F2))</f>
-        <v>0.27341772151898736</v>
-      </c>
-      <c r="K2" s="16">
-        <f>D2-C2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="4">
-        <v>3.8430000000000003E-6</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1.619E-2</v>
-      </c>
-      <c r="J3" s="17">
-        <f>(1-(I3/'Basic learning'!F3))</f>
-        <v>0.71774755927475598</v>
-      </c>
-      <c r="K3" s="16">
-        <f t="shared" ref="K3:K11" si="0">D3-C3</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B2" s="10">
+        <f>'Basic learning'!C14</f>
+        <v>2.5887306999999998E-2</v>
+      </c>
+      <c r="C2" s="10">
+        <f>'Weights transfer'!D14</f>
+        <v>8.9744410000000014E-3</v>
+      </c>
+      <c r="D2" s="10">
+        <f>'Values transfer'!D14</f>
+        <v>1.5758815000000002E-2</v>
+      </c>
+      <c r="E2" s="25">
+        <f>(1-C2/B2)</f>
+        <v>0.6533265897453141</v>
+      </c>
+      <c r="F2" s="26">
+        <f>(1-D2/B2)</f>
+        <v>0.39125321146768943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>0.3</v>
       </c>
-      <c r="E4" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F4" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="4">
-        <v>7.1199999999999996E-6</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="J4" s="17">
-        <f>(1-(I4/'Basic learning'!F4))</f>
-        <v>-0.12077789150460605</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="B3" s="10">
+        <f>'Basic learning'!E14</f>
+        <v>2.0235567000000003E-2</v>
+      </c>
+      <c r="C3" s="10">
+        <f>'Weights transfer'!F14</f>
+        <v>8.2001769999999995E-3</v>
+      </c>
+      <c r="D3" s="10">
+        <f>'Values transfer'!F14</f>
+        <v>1.5420860999999999E-2</v>
+      </c>
+      <c r="E3" s="25">
+        <f t="shared" ref="E3:E4" si="0">(1-C3/B3)</f>
+        <v>0.59476415956123208</v>
+      </c>
+      <c r="F3" s="26">
+        <f t="shared" ref="F3:F4" si="1">(1-D3/B3)</f>
+        <v>0.23793284369051793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="B4" s="10">
+        <f>'Basic learning'!G14</f>
+        <v>2.5531055000000004E-2</v>
+      </c>
+      <c r="C4" s="10">
+        <f>'Weights transfer'!H14</f>
+        <v>7.3505929999999999E-3</v>
+      </c>
+      <c r="D4" s="10">
+        <f>'Values transfer'!H14</f>
+        <v>2.0069284999999999E-2</v>
+      </c>
+      <c r="E4" s="25">
         <f t="shared" si="0"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="E5" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="4">
-        <v>7.7370000000000006E-6</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2.2679999999999999E-2</v>
-      </c>
-      <c r="J5" s="17">
-        <f>(1-(I5/'Basic learning'!F5))</f>
-        <v>-4.7091412742382266E-2</v>
-      </c>
-      <c r="K5" s="16">
-        <f t="shared" si="0"/>
-        <v>0.14999999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F6" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="4">
-        <v>6.7039999999999997E-6</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2.0969999999999999E-2</v>
-      </c>
-      <c r="J6" s="17">
-        <f>(1-(I6/'Basic learning'!F6))</f>
-        <v>0.57789855072463769</v>
-      </c>
-      <c r="K6" s="16">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F7" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="4">
-        <v>3.7589999999999999E-6</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.6109999999999999E-2</v>
-      </c>
-      <c r="J7" s="17">
-        <f>(1-(I7/'Basic learning'!F2))</f>
-        <v>-1.9620253164556845E-2</v>
-      </c>
-      <c r="K7" s="16">
-        <f>D7-C7</f>
-        <v>-9.9999999999999978E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1.132E-5</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2.7789999999999999E-2</v>
-      </c>
-      <c r="J8" s="17">
-        <f>(1-(I8/'Basic learning'!F3))</f>
-        <v>0.51551603905160392</v>
-      </c>
-      <c r="K8" s="16">
-        <f t="shared" si="0"/>
-        <v>-4.9999999999999989E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1.287E-5</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2.9440000000000001E-2</v>
-      </c>
-      <c r="J9" s="17">
-        <f>(1-(I9/'Basic learning'!F4))</f>
-        <v>-0.5066530194472878</v>
-      </c>
-      <c r="K9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1.668E-5</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3.3300000000000003E-2</v>
-      </c>
-      <c r="J10" s="17">
-        <f>(1-(I10/'Basic learning'!F5))</f>
-        <v>-0.53739612188365671</v>
-      </c>
-      <c r="K10" s="16">
-        <f t="shared" si="0"/>
-        <v>4.9999999999999989E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F11" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1.173E-6</v>
-      </c>
-      <c r="I11" s="4">
-        <v>8.7709999999999993E-3</v>
-      </c>
-      <c r="J11" s="17">
-        <f>(1-(I11/'Basic learning'!F6))</f>
-        <v>0.82345008051529789</v>
-      </c>
-      <c r="K11" s="16">
-        <f t="shared" si="0"/>
-        <v>0.10000000000000003</v>
+        <v>0.71209207766776583</v>
+      </c>
+      <c r="F4" s="26">
+        <f t="shared" si="1"/>
+        <v>0.21392652986725402</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>